--- a/Parallel_Test/FailedTest.xlsx
+++ b/Parallel_Test/FailedTest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TestCase</t>
   </si>
@@ -26,28 +26,16 @@
     <t>Status</t>
   </si>
   <si>
-    <t>test2</t>
+    <t>Test4</t>
   </si>
   <si>
-    <t>TD3</t>
+    <t>TD1</t>
   </si>
   <si>
-    <t>firefox</t>
+    <t>androidapp</t>
   </si>
   <si>
-    <t>Skip</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>TD4</t>
-  </si>
-  <si>
-    <t>Safari</t>
-  </si>
-  <si>
-    <t>TD5</t>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -126,34 +114,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Parallel_Test/FailedTest.xlsx
+++ b/Parallel_Test/FailedTest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>TestCase</t>
   </si>
@@ -26,16 +26,22 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Test4</t>
+    <t>test2</t>
   </si>
   <si>
     <t>TD1</t>
   </si>
   <si>
-    <t>androidapp</t>
+    <t>safari</t>
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>Test1</t>
   </si>
 </sst>
 </file>
@@ -114,6 +120,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Parallel_Test/FailedTest.xlsx
+++ b/Parallel_Test/FailedTest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>TestCase</t>
   </si>
@@ -38,10 +38,10 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>firefox</t>
+    <t>Test1</t>
   </si>
   <si>
-    <t>Test1</t>
+    <t>firefox</t>
   </si>
 </sst>
 </file>
@@ -122,29 +122,15 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Parallel_Test/FailedTest.xlsx
+++ b/Parallel_Test/FailedTest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>TestCase</t>
   </si>
@@ -26,10 +26,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t>test2</t>
+    <t>Test2</t>
   </si>
   <si>
-    <t>TD1</t>
+    <t>Test2_TD1</t>
   </si>
   <si>
     <t>safari</t>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Test1</t>
+  </si>
+  <si>
+    <t>Test1_TD1</t>
   </si>
   <si>
     <t>firefox</t>
@@ -125,10 +128,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>

--- a/Parallel_Test/FailedTest.xlsx
+++ b/Parallel_Test/FailedTest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>TestCase</t>
   </si>
@@ -26,6 +26,18 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>TD4</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
     <t>Test2</t>
   </si>
   <si>
@@ -36,9 +48,6 @@
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Test1</t>
   </si>
   <si>
     <t>Test1_TD1</t>
@@ -134,7 +143,21 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Parallel_Test/FailedTest.xlsx
+++ b/Parallel_Test/FailedTest.xlsx
@@ -41,6 +41,12 @@
     <t>Test2</t>
   </si>
   <si>
+    <t>TD6</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
     <t>Test2_TD1</t>
   </si>
   <si>
@@ -48,12 +54,6 @@
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Test1_TD1</t>
-  </si>
-  <si>
-    <t>firefox</t>
   </si>
 </sst>
 </file>
@@ -143,21 +143,21 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
